--- a/spectroscopic_factors/excel/116Cd_h,a_115Cd_bite_1_spec_factors.xlsx
+++ b/spectroscopic_factors/excel/116Cd_h,a_115Cd_bite_1_spec_factors.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3615.035216153981</v>
+        <v>3641.900387983458</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>0.02317287854406182</v>
+        <v>0.02192257005422071</v>
       </c>
       <c r="E2">
-        <v>0.003141292994022741</v>
+        <v>0.002291987910894773</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3569.017371323144</v>
+        <v>3591.307804308955</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>0.02551887121250596</v>
+        <v>0.02663869637456516</v>
       </c>
       <c r="E3">
-        <v>0.004333104468799078</v>
+        <v>0.004091081574291559</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3497.986386411674</v>
+        <v>3590.077663255123</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>0.02373037311631342</v>
+        <v>0.02366025429992787</v>
       </c>
       <c r="E4">
-        <v>0.003513478609099921</v>
+        <v>0.00521842977910457</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3420.845258452171</v>
+        <v>3550.048164038397</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5">
-        <v>0.03045630932345718</v>
+        <v>0.01444569267815698</v>
       </c>
       <c r="E5">
-        <v>0.003479756392010235</v>
+        <v>0.004887875377967198</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3353.038940378058</v>
+        <v>3502.960474122052</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>0.01845692146362354</v>
+        <v>0.02772589099459388</v>
       </c>
       <c r="E6">
-        <v>0.004391315881550767</v>
+        <v>0.005105999225098543</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3290.915198370016</v>
+        <v>3431.102829766671</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>0.02545314483908252</v>
+        <v>0.03086408861912291</v>
       </c>
       <c r="E7">
-        <v>0.003374444487692497</v>
+        <v>0.004395878790919296</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2957.88847128215</v>
+        <v>3368.080569266842</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>0.02836282933303419</v>
+        <v>0.02309599615133376</v>
       </c>
       <c r="E8">
-        <v>0.01026517382891085</v>
+        <v>0.004986305948373994</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2669.884904178187</v>
+        <v>3307.944159957081</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>0.02818492710661131</v>
+        <v>0.0308079837024549</v>
       </c>
       <c r="E9">
-        <v>0.003492483982872822</v>
+        <v>0.004920212833460962</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2596.978080719155</v>
+        <v>3248.901609482813</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>0.02505604632479695</v>
+        <v>0.01478001044755087</v>
       </c>
       <c r="E10">
-        <v>0.004578916913434964</v>
+        <v>0.002939826292938453</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2403.947172541294</v>
+        <v>3194.870240440814</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11">
-        <v>0.02513147247442512</v>
+        <v>0.02020765854304886</v>
       </c>
       <c r="E11">
-        <v>0.003123331550338236</v>
+        <v>0.003248773928114032</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2363.61372066239</v>
+        <v>3055.02847882692</v>
       </c>
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12">
-        <v>0.01447068278552057</v>
+        <v>0.02128466388230035</v>
       </c>
       <c r="E12">
-        <v>0.002539463785951683</v>
+        <v>0.002940387905617116</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2319.93383590759</v>
+        <v>2975.873467839226</v>
       </c>
       <c r="C13">
         <v>6</v>
       </c>
       <c r="D13">
-        <v>0.02041128378582671</v>
+        <v>0.02770523131760127</v>
       </c>
       <c r="E13">
-        <v>0.003503114154172719</v>
+        <v>0.003396105129249617</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2287.011486510062</v>
+        <v>2914.997110421229</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
       <c r="D14">
-        <v>0.02074091276570159</v>
+        <v>0.01792353509950995</v>
       </c>
       <c r="E14">
-        <v>0.003038282242375469</v>
+        <v>0.00307352635875652</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2202.66409671427</v>
+        <v>2818.003645176748</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.03827502682829369</v>
+        <v>0.031864291236701</v>
       </c>
       <c r="E15">
-        <v>0.003773337871053614</v>
+        <v>0.005147245597063278</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2131.892294078317</v>
+        <v>2754.078401999958</v>
       </c>
       <c r="C16">
         <v>6</v>
       </c>
       <c r="D16">
-        <v>0.02137220553022487</v>
+        <v>0.01811789826080882</v>
       </c>
       <c r="E16">
-        <v>0.004257491328773156</v>
+        <v>0.003247970228214284</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2075.143354170944</v>
+        <v>2668.081568129679</v>
       </c>
       <c r="C17">
         <v>6</v>
       </c>
       <c r="D17">
-        <v>0.01707031831143925</v>
+        <v>0.02456670250621414</v>
       </c>
       <c r="E17">
-        <v>0.004180236197551368</v>
+        <v>0.003536048011891281</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2028.962000726196</v>
+        <v>2602.076549741646</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
       <c r="D18">
-        <v>0.05281476220963079</v>
+        <v>0.02409938030112982</v>
       </c>
       <c r="E18">
-        <v>0.005167614690995391</v>
+        <v>0.004949263546595271</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1931.128169376173</v>
+        <v>2710.045077107244</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>0.1039775486208656</v>
+        <v>0.01051513105247635</v>
       </c>
       <c r="E19">
-        <v>0.007595404299481593</v>
+        <v>0.002734785003882226</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1875.580351971428</v>
+        <v>2531.033588374834</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
       <c r="D20">
-        <v>0.02517777939972328</v>
+        <v>0.03772381185211433</v>
       </c>
       <c r="E20">
-        <v>0.003199671039192451</v>
+        <v>0.004760357633397656</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1839.794525534268</v>
+        <v>2420.949001992897</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>0.0282406028780532</v>
+        <v>0.03446884615579243</v>
       </c>
       <c r="E21">
-        <v>0.00412301599149578</v>
+        <v>0.003840073856848417</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1783.899913627585</v>
+        <v>2368.880808504633</v>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
       <c r="D22">
-        <v>0.02324615726568333</v>
+        <v>0.02011961836457342</v>
       </c>
       <c r="E22">
-        <v>0.003986023111015739</v>
+        <v>0.00426744314970525</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1632.334003516893</v>
+        <v>2322.153129981494</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>0.05334130519627747</v>
+        <v>0.02719728923297746</v>
       </c>
       <c r="E23">
-        <v>0.008233373851200288</v>
+        <v>0.005100844512277635</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1567.599400326682</v>
+        <v>2278.055618030553</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>0.05446012148992867</v>
+        <v>0.02909305941778273</v>
       </c>
       <c r="E24">
-        <v>0.005472066328804892</v>
+        <v>0.007019101399252999</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1530.918525759271</v>
+        <v>2204.358204112928</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>0.01318265531742494</v>
+        <v>0.03006435580960081</v>
       </c>
       <c r="E25">
-        <v>0.004493834628379025</v>
+        <v>0.00625422613225518</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1476.878177567879</v>
+        <v>2169.050429654774</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
       <c r="D26">
-        <v>0.01437750835528016</v>
+        <v>0.01895810366595726</v>
       </c>
       <c r="E26">
-        <v>0.003476054486567236</v>
+        <v>0.004582627388520497</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1377.060637143353</v>
+        <v>2132.06047007272</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>0.4555415699425213</v>
+        <v>0.01845117016752726</v>
       </c>
       <c r="E27">
-        <v>0.100469480070772</v>
+        <v>0.004024333868752509</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1260.007317247708</v>
+        <v>2076.921596470905</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>0.0743208674012877</v>
+        <v>0.02963968111937093</v>
       </c>
       <c r="E28">
-        <v>0.006362877964641959</v>
+        <v>0.004811233526620771</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1213.737343430338</v>
+        <v>2022.42484984847</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>0.01838470764314643</v>
+        <v>0.09979395805368245</v>
       </c>
       <c r="E29">
-        <v>0.003402288457911076</v>
+        <v>0.02515718207778839</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1175.33034414019</v>
+        <v>1970.787546092246</v>
       </c>
       <c r="C30">
         <v>6</v>
       </c>
       <c r="D30">
-        <v>0.02579155505534592</v>
+        <v>0.01596931668162964</v>
       </c>
       <c r="E30">
-        <v>0.003388326467157569</v>
+        <v>0.002368410314732851</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1126.2</v>
+        <v>1921.155009467111</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0.02161288838222043</v>
+        <v>0.1725349402278302</v>
       </c>
       <c r="E31">
-        <v>0.003856263046307285</v>
+        <v>0.01914584612281324</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1092.1</v>
+        <v>1879.848117975443</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>0.6782076898555993</v>
+        <v>0.03148268152150961</v>
       </c>
       <c r="E32">
-        <v>0.07457880042967158</v>
+        <v>0.0036565711116972</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1064.20339562557</v>
+        <v>1837.108717688487</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>0.1032257677288525</v>
+        <v>0.01896815130355755</v>
       </c>
       <c r="E33">
-        <v>0.006280999824018068</v>
+        <v>0.003359282187239796</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>945.291905729482</v>
+        <v>1776.304464390151</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>0.01937229636300667</v>
+        <v>0.03154956860255804</v>
       </c>
       <c r="E34">
-        <v>0.0064461330910784</v>
+        <v>0.00565554358419269</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>811.4363739347209</v>
+        <v>1654.530638235761</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>0.1075097810059701</v>
+        <v>0.02259084688376933</v>
       </c>
       <c r="E35">
-        <v>0.01213313284208064</v>
+        <v>0.003733829649748973</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>749.4</v>
+        <v>1620.253637000357</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>0.3400349984659627</v>
+        <v>0.1858667272389751</v>
       </c>
       <c r="E36">
-        <v>0.03834301155334551</v>
+        <v>0.02489450488727895</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>697.7581566765588</v>
+        <v>1571.342367480472</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>0.02405815152088914</v>
+        <v>0.03429536003964168</v>
       </c>
       <c r="E37">
-        <v>0.005365813958487397</v>
+        <v>0.003177792878461232</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>610.4846673320052</v>
+        <v>1533.028047880304</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>0.03494981250377009</v>
+        <v>0.02065408367364211</v>
       </c>
       <c r="E38">
-        <v>0.005344217706733611</v>
+        <v>0.002545582131048032</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>507.3</v>
+        <v>1481.739655643233</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>0.4088069970172646</v>
+        <v>0.01453373587559134</v>
       </c>
       <c r="E39">
-        <v>0.213955063859503</v>
+        <v>0.003517793588354757</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>472.7</v>
+        <v>1374.586558670756</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>0.6950843258012058</v>
+        <v>0.5935097690188837</v>
       </c>
       <c r="E40">
-        <v>0.06566930403645112</v>
+        <v>0.06037726556651042</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>417.2</v>
+        <v>1322.294118779407</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>0.02267629841607166</v>
+        <v>0.009717756258840842</v>
       </c>
       <c r="E41">
-        <v>0.004290110511148693</v>
+        <v>0.003402487004729026</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>360.5</v>
+        <v>1300.028177532532</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D42">
-        <v>0.7969797624228266</v>
+        <v>0.01312659772080421</v>
       </c>
       <c r="E42">
-        <v>0.06099334916501224</v>
+        <v>0.003566527071155214</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>229.1</v>
+        <v>1256.98613235723</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43">
-        <v>0.6581247275163605</v>
+        <v>0.07444713341309173</v>
       </c>
       <c r="E43">
-        <v>0.08602937614592947</v>
+        <v>0.008392975417379975</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>181</v>
+        <v>1212.786733327345</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>1.923776420817924</v>
+        <v>0.04849649450086303</v>
       </c>
       <c r="E44">
-        <v>0.06499244664925417</v>
+        <v>0.007518295814826646</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,288 @@
         <v>43</v>
       </c>
       <c r="B45">
+        <v>1171.224394255621</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>0.105190508708432</v>
+      </c>
+      <c r="E45">
+        <v>0.02320056215857191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1126.3</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0.142341353077429</v>
+      </c>
+      <c r="E46">
+        <v>0.01615234951150906</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1092.1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0.4607198742420117</v>
+      </c>
+      <c r="E47">
+        <v>0.07202972712886309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1062.101907177814</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>0.0786444411539772</v>
+      </c>
+      <c r="E48">
+        <v>0.01109265924966474</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>891.5075023775776</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>0.01707563542601586</v>
+      </c>
+      <c r="E49">
+        <v>0.003599946535452295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>808.109281249695</v>
+      </c>
+      <c r="C50">
         <v>0</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>2.090838380477039</v>
-      </c>
-      <c r="E45">
-        <v>0.2229075019939198</v>
+      <c r="D50">
+        <v>5.655299060451213</v>
+      </c>
+      <c r="E50">
+        <v>0.5557969655556487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>749.4</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>0.4409901200150917</v>
+      </c>
+      <c r="E51">
+        <v>0.09148078207759601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>698.4294621497356</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>0.02913580019687534</v>
+      </c>
+      <c r="E52">
+        <v>0.004895474606561604</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>662.5350823811776</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>0.02505980313866853</v>
+      </c>
+      <c r="E53">
+        <v>0.003243506251967708</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>607.646340827428</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>0.05073179914482301</v>
+      </c>
+      <c r="E54">
+        <v>0.006071340057549751</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>490.2399813553229</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>0.1482266241326562</v>
+      </c>
+      <c r="E55">
+        <v>0.03932543089233735</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>472.4903753881296</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>2.495872980536268</v>
+      </c>
+      <c r="E56">
+        <v>0.170790686070911</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>417.2</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>0.02241488784086501</v>
+      </c>
+      <c r="E57">
+        <v>0.007685104402582291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>393.1751238336715</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>0.05630835840339664</v>
+      </c>
+      <c r="E58">
+        <v>0.01553334024921286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>360.5</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>0.8539068883101714</v>
+      </c>
+      <c r="E59">
+        <v>0.06505957244267972</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>229.1</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>0.6789971084094479</v>
+      </c>
+      <c r="E60">
+        <v>0.0814075113775491</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>181</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>1.925789853069213</v>
+      </c>
+      <c r="E61">
+        <v>0.06428176034885699</v>
       </c>
     </row>
   </sheetData>
